--- a/output/aggregate_tables/top10_assessed_species_by_area.xlsx
+++ b/output/aggregate_tables/top10_assessed_species_by_area.xlsx
@@ -8839,31 +8839,31 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>82.95626967154037</v>
+        <v>140.4884115384615</v>
       </c>
       <c r="Q4">
-        <v>282.3136003284597</v>
+        <v>224.7814584615385</v>
       </c>
       <c r="R4">
-        <v>82.95626967154037</v>
+        <v>140.4884115384615</v>
       </c>
       <c r="S4">
-        <v>282.3136003284597</v>
+        <v>224.7814584615385</v>
       </c>
       <c r="T4">
         <v>0</v>
       </c>
       <c r="U4">
-        <v>22.71095332104461</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="V4">
-        <v>77.28904667895539</v>
+        <v>61.53846153846154</v>
       </c>
       <c r="W4">
-        <v>22.71095332104461</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="X4">
-        <v>77.28904667895539</v>
+        <v>61.53846153846154</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -8913,31 +8913,31 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>31.28889022848426</v>
+        <v>110.2833917647059</v>
       </c>
       <c r="Q5">
-        <v>281.1807197715157</v>
+        <v>202.1862182352941</v>
       </c>
       <c r="R5">
-        <v>31.28889022848426</v>
+        <v>110.2833917647059</v>
       </c>
       <c r="S5">
-        <v>281.1807197715157</v>
+        <v>202.1862182352941</v>
       </c>
       <c r="T5">
         <v>0</v>
       </c>
       <c r="U5">
-        <v>10.01341865805262</v>
+        <v>35.29411764705883</v>
       </c>
       <c r="V5">
-        <v>89.98658134194739</v>
+        <v>64.70588235294117</v>
       </c>
       <c r="W5">
-        <v>10.01341865805262</v>
+        <v>35.29411764705883</v>
       </c>
       <c r="X5">
-        <v>89.98658134194739</v>
+        <v>64.70588235294117</v>
       </c>
     </row>
     <row r="6" spans="1:24">
@@ -9061,31 +9061,31 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>82.85326000000002</v>
+        <v>55.23550666666667</v>
       </c>
       <c r="Q7">
-        <v>41.42663000000001</v>
+        <v>69.04438333333333</v>
       </c>
       <c r="R7">
-        <v>82.85326000000002</v>
+        <v>55.23550666666667</v>
       </c>
       <c r="S7">
-        <v>41.42663000000001</v>
+        <v>69.04438333333333</v>
       </c>
       <c r="T7">
         <v>0</v>
       </c>
       <c r="U7">
-        <v>66.66666666666666</v>
+        <v>44.44444444444445</v>
       </c>
       <c r="V7">
-        <v>33.33333333333333</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="W7">
-        <v>66.66666666666666</v>
+        <v>44.44444444444445</v>
       </c>
       <c r="X7">
-        <v>33.33333333333333</v>
+        <v>55.55555555555556</v>
       </c>
     </row>
     <row r="8" spans="1:24">
@@ -9135,31 +9135,31 @@
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.2473539558975431</v>
+        <v>14.26495733333333</v>
       </c>
       <c r="Q8">
-        <v>106.7398260441025</v>
+        <v>92.72222266666667</v>
       </c>
       <c r="R8">
-        <v>0.2473539558975431</v>
+        <v>14.26495733333333</v>
       </c>
       <c r="S8">
-        <v>106.7398260441025</v>
+        <v>92.72222266666667</v>
       </c>
       <c r="T8">
         <v>0</v>
       </c>
       <c r="U8">
-        <v>0.2311996221393471</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="V8">
-        <v>99.76880037786064</v>
+        <v>86.66666666666667</v>
       </c>
       <c r="W8">
-        <v>0.2311996221393471</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="X8">
-        <v>99.76880037786064</v>
+        <v>86.66666666666667</v>
       </c>
     </row>
     <row r="9" spans="1:24">
@@ -9206,34 +9206,34 @@
         <v>80</v>
       </c>
       <c r="O9">
-        <v>12.002832</v>
+        <v>8.001887999999999</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>48.011328</v>
+        <v>52.012272</v>
       </c>
       <c r="R9">
-        <v>12.002832</v>
+        <v>8.001887999999999</v>
       </c>
       <c r="S9">
-        <v>48.011328</v>
+        <v>52.012272</v>
       </c>
       <c r="T9">
-        <v>20</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="U9">
         <v>0</v>
       </c>
       <c r="V9">
-        <v>80</v>
+        <v>86.66666666666667</v>
       </c>
       <c r="W9">
-        <v>20</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="X9">
-        <v>80</v>
+        <v>86.66666666666667</v>
       </c>
     </row>
     <row r="10" spans="1:24">
@@ -9354,34 +9354,34 @@
         <v>25</v>
       </c>
       <c r="O11">
-        <v>4.749089261035554</v>
+        <v>4.208611818181819</v>
       </c>
       <c r="P11">
-        <v>36.79655147792889</v>
+        <v>29.46028272727273</v>
       </c>
       <c r="Q11">
-        <v>4.749089261035554</v>
+        <v>12.62583545454545</v>
       </c>
       <c r="R11">
-        <v>41.54564073896444</v>
+        <v>33.66889454545455</v>
       </c>
       <c r="S11">
-        <v>4.749089261035554</v>
+        <v>12.62583545454545</v>
       </c>
       <c r="T11">
-        <v>10.2583798653444</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="U11">
-        <v>79.48324026931121</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="V11">
-        <v>10.2583798653444</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="W11">
-        <v>89.74162013465562</v>
+        <v>72.72727272727272</v>
       </c>
       <c r="X11">
-        <v>10.2583798653444</v>
+        <v>27.27272727272727</v>
       </c>
     </row>
   </sheetData>
